--- a/febs-server/febs-server-ding/src/main/resources/static/培训签到表.xlsx
+++ b/febs-server/febs-server-ding/src/main/resources/static/培训签到表.xlsx
@@ -10,16 +10,16 @@
     <sheet name="培训课程签到成绩表" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">培训课程签到成绩表!$8:$9</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">培训课程签到成绩表!$8:$8</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">培训课程签到成绩表!$A$1:$I$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">培训课程签到成绩表!$9:$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">培训课程签到成绩表!$9:$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">培训课程签到成绩表!$A$1:$I$10</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>培训实施情况记录表</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>{train}</t>
+  </si>
+  <si>
+    <t>培训有效性评价</t>
+  </si>
+  <si>
+    <t>管制编号:GS-QR-HR-002-007-A2</t>
   </si>
   <si>
     <t>应到人数</t>
@@ -140,13 +146,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +184,12 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1" tint="0.35"/>
       <name val="黑体"/>
       <charset val="134"/>
     </font>
@@ -199,7 +211,97 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,26 +315,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -244,53 +339,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,44 +353,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -369,192 +381,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -572,6 +584,94 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -583,6 +683,36 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,23 +735,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,41 +775,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -683,10 +783,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -695,137 +795,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -860,43 +960,70 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="fill" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1265,10 +1392,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1348,122 +1475,137 @@
       <c r="I4" s="8"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="24" customHeight="1" spans="1:9">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="7" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="8"/>
+      <c r="I5" s="13"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="24" customHeight="1" spans="1:9">
-      <c r="A6" s="7" t="s">
+    <row r="6" s="1" customFormat="1" ht="25" customHeight="1" spans="1:9">
+      <c r="A6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="31"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="16" customHeight="1" spans="1:9">
+      <c r="A7" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="32"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="24" customHeight="1" spans="1:9">
+      <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="F8" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="8"/>
+      <c r="G8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="8"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="21" customHeight="1" spans="1:9">
-      <c r="A7" s="8"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
+    <row r="9" s="1" customFormat="1" ht="25" customHeight="1" spans="1:9">
+      <c r="A9" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="25" customHeight="1" spans="1:9">
-      <c r="A8" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="21" customHeight="1" spans="1:9">
-      <c r="A9" s="17">
+    <row r="10" s="1" customFormat="1" ht="21" customHeight="1" spans="1:9">
+      <c r="A10" s="24">
         <v>1</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="20" t="s">
+      <c r="B10" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="C10" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="D10" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="E10" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="F10" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="23" t="s">
+      <c r="G10" s="29" t="s">
         <v>37</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:B3"/>
@@ -1475,9 +1617,11 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="C6:I6"/>
     <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="H8:I8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.354166666666667" right="0.354166666666667" top="0" bottom="0" header="0.235416666666667" footer="0.118055555555556"/>
